--- a/pred_ohlcv/54_21/2019-10-31 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 IOST ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>8775836.013788005</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>8744551.464588005</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>8775751.637688005</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>8878639.818688005</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>9219813.151357414</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>8971385.916157413</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>8971385.916157413</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>8825978.100057414</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>8983477.649457414</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>8363817.674157414</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>9037900.187857414</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>9599741.794918552</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>9093932.269318553</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>10163957.62931855</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>11132578.61001855</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>11568768.39451855</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>11647326.15611855</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>11147010.58521855</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>11713507.42048041</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>11704350.27518041</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>11696707.27518041</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>11416019.02968041</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>11932852.73048041</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>11932852.73048041</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>11453658.08938041</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>11471458.34798041</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>11462600.34798041</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>10333010.98898041</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>10363693.23608041</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>10292688.71548041</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>10232098.66418041</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>10304220.15318041</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>10304220.15318041</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>10254210.15318041</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>10307245.93358041</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>10510224.12608041</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>10129980.90904375</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>9866051.886743752</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>24313199.87391209</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>24512986.54891209</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>24067674.61821209</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>24231730.60141209</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>24327737.69981209</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>24327638.68991209</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>24216059.62151209</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>24088643.68881209</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>24410452.06561209</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>24253263.96101209</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>24071402.04361209</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>24627145.67181209</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>25696670.10023467</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>25476829.79523467</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>25488953.55153467</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>24948406.20983467</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>24948406.20983467</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>24201427.58503467</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>24476980.90233467</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>24493960.71133467</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>24174339.98213467</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>23913898.36323467</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>23487508.48403467</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>23487508.48403467</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>23665028.04913467</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>24052474.41403467</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>24073637.74663467</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>24029532.91833467</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>24131680.39273467</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>24123898.98423467</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>24612392.37743467</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>24519620.96133467</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>24181860.20403467</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>24338801.51903467</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>24518263.69773467</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>24529854.69773467</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>24526721.94673467</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>24526487.94673467</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>18278757.98878903</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>18278758.20098903</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>18596490.46238903</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>18491282.68838903</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>18497482.68838903</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>18450807.38208903</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>18450807.38208903</v>
       </c>
       <c r="H520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>18432197.38408903</v>
       </c>
       <c r="H522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>18429889.14998903</v>
       </c>
       <c r="H523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>18479148.48988903</v>
       </c>
       <c r="H524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>18537858.21177975</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>18537858.21177975</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>17956352.82217975</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>17956352.82217975</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>17961140.95457974</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>17961140.95457974</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>17972165.97767974</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>17977021.97767974</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>18089021.97767974</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>18189021.97767974</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>18187359.79887974</v>
       </c>
       <c r="H777">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>18187359.79887974</v>
       </c>
       <c r="H778">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>18187370.79887974</v>
       </c>
       <c r="H779">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>18121480.89777974</v>
       </c>
       <c r="H780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>18121480.89777974</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>18123480.89777974</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>18123927.09417975</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>18063634.86617975</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>18075704.86617975</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>18030010.30577974</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>18030010.30577974</v>
       </c>
       <c r="H787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>18029990.30577974</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>18030358.52497974</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>17543529.73937974</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>17544195.73937974</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>17674652.15437974</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>17754398.22017974</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>17603655.61467974</v>
       </c>
       <c r="H794">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>17480827.32577974</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>17480827.32577974</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>17480827.32577974</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>17481627.32577974</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>17452930.81597975</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>17454930.81597975</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>17459930.81597975</v>
       </c>
       <c r="H801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>17452749.81847975</v>
       </c>
       <c r="H802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>17458304.81847975</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>17710505.45447213</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>17710505.45447213</v>
       </c>
       <c r="H806">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-31 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 IOST ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>8775836.013788005</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>8744551.464588005</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>8775751.637688005</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>8878639.818688005</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>9219813.151357414</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>9013730.330557413</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>8971966.916157413</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>8971385.916157413</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>8971385.916157413</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>8825978.100057414</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>8983477.649457414</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>8363817.674157414</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>9037900.187857414</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>9599741.794918552</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>9093932.269318553</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>10163957.62931855</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>11132578.61001855</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>11568768.39451855</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>11647326.15611855</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>11147010.58521855</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>11713507.42048041</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>11704350.27518041</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>11696707.27518041</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>11696707.27518041</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>11416019.02968041</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>11932852.73048041</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>11932852.73048041</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>11453658.08938041</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>11471458.34798041</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>11462600.34798041</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>10333010.98898041</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>10363693.23608041</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>10292688.71548041</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>10232098.66418041</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>10304220.15318041</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>10304220.15318041</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>10254210.15318041</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>10307245.93358041</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>10510224.12608041</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>10129980.90904375</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>9866051.886743752</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>11190320.59984033</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>10299892.58354102</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>21875547.21944609</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>24564362.18331209</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>24313199.87391209</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>24512986.54891209</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>24067674.61821209</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>24231730.60141209</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>24327737.69981209</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>24327638.68991209</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>24216059.62151209</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>24088643.68881209</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>24410452.06561209</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>24253263.96101209</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>24071402.04361209</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>24627145.67181209</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>25696670.10023467</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>25476829.79523467</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>25488953.55153467</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>24948406.20983467</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>24948406.20983467</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>24201427.58503467</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>24476980.90233467</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>24493960.71133467</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>24174339.98213467</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>23913898.36323467</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>23487508.48403467</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>24052474.41403467</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>24073637.74663467</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>24029532.91833467</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>17458304.81847975</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
